--- a/DSB og Banedanmark lokationer.xlsx
+++ b/DSB og Banedanmark lokationer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders Reinholdt\Dropbox\Min computer (LAPTOP-NRJIJ8B2)\Documents\GitHub\DO-eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albert/Documents/Dropbox/Statskundskab/DO/DO-eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7123EAF-B63A-4BA7-9244-E1D07BBF8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615BE87-053A-064A-9164-7E0E8283A158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9A28A661-16E5-4047-AF66-37E2F03AC8B4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{9A28A661-16E5-4047-AF66-37E2F03AC8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -465,16 +465,16 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -514,7 +514,7 @@
         <v>11.790835739396901</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -534,7 +534,7 @@
         <v>12.5588211264843</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -554,7 +554,7 @@
         <v>12.5560737186598</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -574,7 +574,7 @@
         <v>12.555513048091001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -594,7 +594,7 @@
         <v>9.7334724120534997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -614,7 +614,7 @@
         <v>9.7372082832465594</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -634,7 +634,7 @@
         <v>12.275364408053401</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>

--- a/DSB og Banedanmark lokationer.xlsx
+++ b/DSB og Banedanmark lokationer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albert/Documents/Dropbox/Statskundskab/DO/DO-eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615BE87-053A-064A-9164-7E0E8283A158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8591C7-DEF3-C146-A52E-61F287718651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{9A28A661-16E5-4047-AF66-37E2F03AC8B4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>INST_NAVN</t>
   </si>
@@ -63,15 +63,9 @@
     <t>Carsten Niebuhrs Gade 43</t>
   </si>
   <si>
-    <t>Vasbygade 10</t>
-  </si>
-  <si>
     <t>København V</t>
   </si>
   <si>
-    <t>København SV</t>
-  </si>
-  <si>
     <t>Godsbanevej 2</t>
   </si>
   <si>
@@ -79,12 +73,6 @@
   </si>
   <si>
     <t>Fredericia</t>
-  </si>
-  <si>
-    <t>Banegårdsvej 1</t>
-  </si>
-  <si>
-    <t>Carsten Niebuhrs Gade 49</t>
   </si>
   <si>
     <t>DSB</t>
@@ -459,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED83753F-7E38-420D-8467-95D15F716650}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -499,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>4100</v>
@@ -525,7 +513,7 @@
         <v>1577</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>55.662943053183199</v>
@@ -539,108 +527,48 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
-        <v>1577</v>
+        <v>7000</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2">
-        <v>55.6622809553946</v>
+        <v>55.5711997758455</v>
       </c>
       <c r="F4" s="2">
-        <v>12.5560737186598</v>
+        <v>9.7334724120534997</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="3">
-        <v>2450</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>2630</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>55.6589593701339</v>
+        <v>55.6475861622812</v>
       </c>
       <c r="F5" s="2">
-        <v>12.555513048091001</v>
+        <v>12.275364408053401</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
-        <v>55.5711997758455</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9.7334724120534997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
-        <v>55.567342376854398</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.7372082832465594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2630</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2">
-        <v>55.6475861622812</v>
-      </c>
-      <c r="F8" s="2">
-        <v>12.275364408053401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
